--- a/SMO/TemplateExcel/DuLieuKeHoachGiaVon.xlsx
+++ b/SMO/TemplateExcel/DuLieuKeHoachGiaVon.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF0410-74F6-4F84-A37E-08F2DC166361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KH nhập nhiên liệu" sheetId="1" r:id="rId1"/>
     <sheet name="KH giá vốn" sheetId="2" r:id="rId2"/>
+    <sheet name="Giá vốn theo tháng" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Đơn vị:</t>
   </si>
@@ -170,12 +172,57 @@
   </si>
   <si>
     <t>FHS</t>
+  </si>
+  <si>
+    <t>DVT</t>
+  </si>
+  <si>
+    <t>ĐƠN GIÁ</t>
+  </si>
+  <si>
+    <t>THÁNG 1</t>
+  </si>
+  <si>
+    <t>THÁNG 2</t>
+  </si>
+  <si>
+    <t>THÁNG 3</t>
+  </si>
+  <si>
+    <t>THÁNG 4</t>
+  </si>
+  <si>
+    <t>THÁNG 5</t>
+  </si>
+  <si>
+    <t>THÁNG 6</t>
+  </si>
+  <si>
+    <t>THÁNG 7</t>
+  </si>
+  <si>
+    <t>THÁNG 8</t>
+  </si>
+  <si>
+    <t>THÁNG 9</t>
+  </si>
+  <si>
+    <t>THÁNG 10</t>
+  </si>
+  <si>
+    <t>THÁNG 11</t>
+  </si>
+  <si>
+    <t>THÁNG 12</t>
+  </si>
+  <si>
+    <t>CỘNG GIÁ VỐN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
@@ -225,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -300,11 +347,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -315,52 +384,70 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -676,12 +763,12 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -691,112 +778,112 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="6" spans="1:20" s="4" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="12" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="18" t="s">
+      <c r="S6" s="11"/>
+      <c r="T6" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="4" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="14"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -844,6 +931,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="B2:E4"/>
@@ -855,13 +949,6 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -869,12 +956,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,12 +989,12 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -917,121 +1004,121 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="6" spans="1:21" s="5" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="20" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
     </row>
     <row r="7" spans="1:21" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20" t="s">
+      <c r="L7" s="17"/>
+      <c r="M7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="S7" s="20" t="s">
+      <c r="S7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20" t="s">
+      <c r="T7" s="17"/>
+      <c r="U7" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1041,24 +1128,24 @@
       <c r="J8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
       <c r="S8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="20"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1103,6 +1190,21 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="O6:U6"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
@@ -1110,21 +1212,185 @@
     <mergeCell ref="R7:R8"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:U8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B2:E4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="K7:K8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437FE6D3-4533-4E1F-8EEE-836CCF270486}">
+  <dimension ref="A2:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="15" width="17.77734375" style="24" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="6" spans="1:16" s="5" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
